--- a/biology/Botanique/Cytisopsis/Cytisopsis.xlsx
+++ b/biology/Botanique/Cytisopsis/Cytisopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cytisopsis est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire du Proche-Orient et d'Afrique du Nord, qui comprend deux espèces acceptées.
-Ce sont des arbrisseaux qui se distinguent dans la tribu des Loteae notamment par leurs feuilles sessiles et l'absence de stipules. Ces plantes poussent dans les  bois et broussailles méditerranéennes et dans les zones arides et semi-arides[3].
+Ce sont des arbrisseaux qui se distinguent dans la tribu des Loteae notamment par leurs feuilles sessiles et l'absence de stipules. Ces plantes poussent dans les  bois et broussailles méditerranéennes et dans les zones arides et semi-arides.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Cytisopsis », est formé du nom de genre Cytisus (terme latin dérivé du grec κύτισος, kýtisos, qui désignait le cytise), avec le suffixe grec ὄψις (-opsis), « apparence », en référence à la ressemblance entre les deux genres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Cytisopsis », est formé du nom de genre Cytisus (terme latin dérivé du grec κύτισος, kýtisos, qui désignait le cytise), avec le suffixe grec ὄψις (-opsis), « apparence », en référence à la ressemblance entre les deux genres.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (12 novembre 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 novembre 2018) :
 Cytisopsis ahmedii (Batt. &amp; Pit.) Lassen
 Cytisopsis pseudocytisus (Boiss.) Fertig
 </t>
